--- a/me/5.Component-Lifecycle-Composition.xlsx
+++ b/me/5.Component-Lifecycle-Composition.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0179023-CF54-4925-88AC-059567E04600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E9C9DC-9DD8-4B95-B3B7-489848F1B9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Using Slots" sheetId="1" r:id="rId1"/>
+    <sheet name="Public Methods" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="150">
   <si>
     <t>構成</t>
   </si>
@@ -256,6 +257,303 @@
   </si>
   <si>
     <t>pass as unamed slot, to supply mark to unnamed slot we do not have to use the slot attribute</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\publicMethodChild\publicMethodChild.html</t>
+  </si>
+  <si>
+    <t>    &lt;lightning-checkbox-group name="Checkbox Group"</t>
+  </si>
+  <si>
+    <t>    label="Marker Group"</t>
+  </si>
+  <si>
+    <t>    options={options}</t>
+  </si>
+  <si>
+    <t>    value={value}&gt;&lt;/lightning-checkbox-group&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;div&gt; I am a DIV in PArent Component&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\publicMethodChild\publicMethodChild.js</t>
+  </si>
+  <si>
+    <t>import { LightningElement, track, api } from 'lwc';</t>
+  </si>
+  <si>
+    <t>export default class PublicMethodChild extends LightningElement {</t>
+  </si>
+  <si>
+    <t>    @track value = ['red'];</t>
+  </si>
+  <si>
+    <t>    options = [</t>
+  </si>
+  <si>
+    <t>        { label: 'Red Marker', value: 'red' },</t>
+  </si>
+  <si>
+    <t>        { label: 'Blue Marker', value: 'blue' },</t>
+  </si>
+  <si>
+    <t>        { label: 'Green Marker', value: 'green' },</t>
+  </si>
+  <si>
+    <t>        { label: 'Black Marker', value: 'black' },</t>
+  </si>
+  <si>
+    <t>    ];</t>
+  </si>
+  <si>
+    <t>    @api</t>
+  </si>
+  <si>
+    <t>    selectCheckbox(checkboxValue){</t>
+  </si>
+  <si>
+    <t>        const selectedCheckbox = this.options.find( checkbox =&gt;{</t>
+  </si>
+  <si>
+    <t>            return checkboxValue === checkbox.value;</t>
+  </si>
+  <si>
+    <t>        })</t>
+  </si>
+  <si>
+    <t>        if(selectedCheckbox){</t>
+  </si>
+  <si>
+    <t>            this.value = selectedCheckbox.value;</t>
+  </si>
+  <si>
+    <t>            return "Successfully checked";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        } </t>
+  </si>
+  <si>
+    <t>        return "No checkbox found";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>Give the default selected as "red"</t>
+  </si>
+  <si>
+    <t>we do not decorate it with @track because we are not expecting our options value to change. So this is private non-reactive</t>
+  </si>
+  <si>
+    <t>properties where the value would be the private reactive property</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\publicMethodChild\publicMethodChild.js-meta.xml</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;</t>
+  </si>
+  <si>
+    <t>&lt;LightningComponentBundle xmlns="http://soap.sforce.com/2006/04/metadata"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;apiVersion&gt;55.0&lt;/apiVersion&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;targets&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;target&gt;lightning__RecordPage&lt;/target&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;target&gt;lightning__AppPage&lt;/target&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;target&gt;lightning__HomePage&lt;/target&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/targets&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/LightningComponentBundle&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>    &lt;isExposed&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/isExposed&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>publicMethodChild</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>publicMethodParent</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\publicMethodParent\publicMethodParent.html</t>
+  </si>
+  <si>
+    <t>    &lt;lightning-card title="Call Methods On Child Component"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;lightning-input value={value} label="Checkbox Value" onchange={onInputChangeHandler}&gt;&lt;/lightning-input&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;lightning-button label="Select Checkbox" onclick={checkboxSelectHandler}&gt;&lt;/lightning-button&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;div&gt; I am a DIV in PArent Component&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;c-public-method-child &gt;&lt;/c-public-method-child&gt;</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\publicMethodParent\publicMethodParent.js</t>
+  </si>
+  <si>
+    <t>import { LightningElement, track } from 'lwc';</t>
+  </si>
+  <si>
+    <t>export default class PublicMethodParent extends LightningElement {</t>
+  </si>
+  <si>
+    <t>    @track value;</t>
+  </si>
+  <si>
+    <t>    checkboxSelectHandler(){</t>
+  </si>
+  <si>
+    <t>        const childComponent = this.template.querySelector('c-public-method-child');</t>
+  </si>
+  <si>
+    <t>        const returnedMessage = childComponent.selectCheckbox(this.value);</t>
+  </si>
+  <si>
+    <t>        console.log('Returned Message: ', returnedMessage);</t>
+  </si>
+  <si>
+    <t>    onInputChangeHandler(event){</t>
+  </si>
+  <si>
+    <t>        this.value = event.target.value;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In this part we are going to see how we can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>call the method on child component from the parent componen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t. How to allow a method to be called from parent component. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure that we declare that particular method as a public method.  That means similar to the public properties we </t>
+  </si>
+  <si>
+    <t>To understand this we are going to build a simple example where we are going to check the check boxes in the child component dynamically from the parent component</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/docs/component-library/bundle/lightning-checkbox-group/example</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">need to decorate our method with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> decorator. This checkboxValue is supplied from parent</t>
+    </r>
+  </si>
+  <si>
+    <t>check selectedCheckbox is undefined or not. Because if there is no match found in this selected checkbox would be undefined</t>
+  </si>
+  <si>
+    <t>If selectedCheckbox found then we check that particular check in particular Component</t>
+  </si>
+  <si>
+    <t>declare a input box to supply the checkbox value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call child component </t>
+  </si>
+  <si>
+    <t>call selectCheckbox method in child component from our parent component</t>
+  </si>
+  <si>
+    <t>get child component element by use querySelector javascript method which allows us to select a component(use tag name we can say the component name) from markup or select element from our markup using CSS selector</t>
+  </si>
+  <si>
+    <t>Test browser</t>
+  </si>
+  <si>
+    <t>The red marker is selected by default</t>
+  </si>
+  <si>
+    <t>@track properties is reactive properties but it only creates the binding from our javascript to our markup. To</t>
+  </si>
+  <si>
+    <t>create the binding from our markup to the Javascript we need to use the onchange event</t>
+  </si>
+  <si>
+    <t>after input "green" then click "Select Checkbox" button, "Green Marker" will be auto selected</t>
   </si>
 </sst>
 </file>
@@ -384,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -397,7 +695,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,6 +1040,814 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE34F7B2-F428-290E-0345-EF1FB6ECBAA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="781050" y="8696325"/>
+          <a:ext cx="561975" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560064EC-9FE2-0052-A3BC-12B2652B41AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1219200" y="8896350"/>
+          <a:ext cx="209550" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58DF11C-01AB-36AF-6CAD-00FC1F843271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="659946" y="1019175"/>
+          <a:ext cx="11368768" cy="5667809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>513090</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07640E3C-8203-A166-890B-45E98567F21F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="6953250"/>
+          <a:ext cx="10076190" cy="3533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3036EC27-00CC-F0C8-5269-7BD950DAD6F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2657475" y="22917150"/>
+          <a:ext cx="6181725" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F9F939-DE50-E56B-EB46-C7774CFEC534}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1209675" y="28889325"/>
+          <a:ext cx="1133475" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55518697-F70B-F11C-5D94-C842C5CE8AB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1133475" y="29089350"/>
+          <a:ext cx="2867025" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8A1BAD-9F82-1579-32D6-925C55EC8958}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="857250" y="28917900"/>
+          <a:ext cx="4010025" cy="3705225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9A483E-D980-B530-CB06-D2082C0BFA2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1076325" y="18440400"/>
+          <a:ext cx="3810000" cy="10963275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719C4AAC-36FA-094C-9E83-117E2A8D91DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1619250" y="23002875"/>
+          <a:ext cx="1847850" cy="8867775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAEA9E5-5150-358E-2EDF-7814BC8357E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="29508450"/>
+          <a:ext cx="3124200" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5557CE-C4B2-0674-5A1B-1B95E1B0149F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="31194375"/>
+          <a:ext cx="3448050" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>109104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631A2F3F-1E70-61C1-44E5-7226522E2BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="709893" y="34183544"/>
+          <a:ext cx="11045078" cy="5538354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>45968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7FF75E2-B4A0-55FC-2516-2F6543FDF1B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="681318" y="39908069"/>
+          <a:ext cx="11230535" cy="5656193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>10950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36470332-C202-734B-8C7F-6D001B66CDFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="661147" y="45955323"/>
+          <a:ext cx="11306735" cy="5669921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>369795</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11906536-C750-6F91-7E25-1A0EDF9E4DDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4202206" y="45843265"/>
+          <a:ext cx="4034118" cy="3664323"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1011,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V113" sqref="V113"/>
+    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,44 +2496,24 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -1462,78 +2549,36 @@
       <c r="B81" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
       <c r="J81" s="6"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
       <c r="J83" s="6"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
       <c r="J84" s="6"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
       <c r="J85" s="6"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
       <c r="J86" s="6"/>
       <c r="K86" t="s">
         <v>34</v>
@@ -1546,52 +2591,24 @@
       <c r="B87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
       <c r="J87" s="6"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
       <c r="J88" s="6"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
       <c r="J89" s="6"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
       <c r="J90" s="6"/>
       <c r="K90" t="s">
         <v>34</v>
@@ -1604,65 +2621,30 @@
       <c r="B91" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
       <c r="J92" s="6"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
       <c r="J93" s="6"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
       <c r="J94" s="6"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
       <c r="J95" s="6"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
@@ -1683,4 +2665,1110 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11DD101-CC84-494F-A002-5249EE04CCC8}">
+  <dimension ref="A2:T241"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W247" sqref="W247"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="T31" s="6"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="T38" s="6"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="T39" s="6"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="T40" s="6"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="T41" s="6"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="T42" s="6"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="T43" s="6"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="T44" s="6"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="T45" s="6"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="T46" s="6"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="T47" s="6"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="T48" s="6"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="T49" s="6"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="T50" s="6"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="T51" s="6"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="T52" s="6"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="T53" s="6"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="T54" s="6"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="T55" s="6"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="9"/>
+    </row>
+    <row r="57" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="H69" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="H77" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="H78" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="H79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="G80" t="s">
+        <v>21</v>
+      </c>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="H81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="H82" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="H83" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="G84" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="H85" t="s">
+        <v>26</v>
+      </c>
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="H86" t="s">
+        <v>27</v>
+      </c>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="G87" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L87" s="6"/>
+      <c r="M87" t="s">
+        <v>34</v>
+      </c>
+      <c r="N87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="G88" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L88" s="6"/>
+      <c r="M88" t="s">
+        <v>34</v>
+      </c>
+      <c r="N88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="G89" t="s">
+        <v>28</v>
+      </c>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="G90" t="s">
+        <v>29</v>
+      </c>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="H91" t="s">
+        <v>30</v>
+      </c>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="H92" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="H93" t="s">
+        <v>32</v>
+      </c>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="7"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="9"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H111" s="6"/>
+      <c r="I111" t="s">
+        <v>34</v>
+      </c>
+      <c r="J111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H113" s="6"/>
+      <c r="I113" t="s">
+        <v>34</v>
+      </c>
+      <c r="J113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H114" s="6"/>
+      <c r="J114" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H120" s="6"/>
+      <c r="I120" t="s">
+        <v>34</v>
+      </c>
+      <c r="J120" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H121" s="6"/>
+      <c r="J121" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H126" s="6"/>
+      <c r="I126" t="s">
+        <v>34</v>
+      </c>
+      <c r="J126" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H127" s="6"/>
+      <c r="J127" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="9"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="4"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J143" s="6"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J144" s="6"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B145" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J145" s="6"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B146" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="9"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="4"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B151" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M151" s="6"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B152" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M152" s="6"/>
+      <c r="N152" t="s">
+        <v>34</v>
+      </c>
+      <c r="O152" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M153" s="6"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M154" s="6"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M155" s="6"/>
+      <c r="N155" t="s">
+        <v>34</v>
+      </c>
+      <c r="O155" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B156" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M156" s="6"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B157" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
+      <c r="L157" s="8"/>
+      <c r="M157" s="9"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="4"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="J162" s="6"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J163" s="6"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J164" s="6"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="J165" s="6"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J166" s="6"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J167" s="6"/>
+      <c r="K167" t="s">
+        <v>34</v>
+      </c>
+      <c r="L167" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J168" s="6"/>
+      <c r="K168" t="s">
+        <v>34</v>
+      </c>
+      <c r="L168" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J169" s="6"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B170" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J170" s="6"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+      <c r="J171" s="6"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J172" s="6"/>
+      <c r="K172" t="s">
+        <v>34</v>
+      </c>
+      <c r="L172" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J173" s="6"/>
+      <c r="L173" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J174" s="6"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="9"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/5.Component-Lifecycle-Composition.xlsx
+++ b/me/5.Component-Lifecycle-Composition.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E9C9DC-9DD8-4B95-B3B7-489848F1B9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CBC239-E874-4E71-997D-1883B4D136C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Using Slots" sheetId="1" r:id="rId1"/>
     <sheet name="Public Methods" sheetId="2" r:id="rId2"/>
+    <sheet name="Shadow DOM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="170">
   <si>
     <t>構成</t>
   </si>
@@ -272,9 +273,6 @@
   </si>
   <si>
     <t>    value={value}&gt;&lt;/lightning-checkbox-group&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;div&gt; I am a DIV in PArent Component&lt;/div&gt;</t>
   </si>
   <si>
     <t>LightningWebComponent\LWC\force-app\main\default\lwc\publicMethodChild\publicMethodChild.js</t>
@@ -428,9 +426,6 @@
     <t>        &lt;lightning-button label="Select Checkbox" onclick={checkboxSelectHandler}&gt;&lt;/lightning-button&gt;</t>
   </si>
   <si>
-    <t>        &lt;div&gt; I am a DIV in PArent Component&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>        &lt;c-public-method-child &gt;&lt;/c-public-method-child&gt;</t>
   </si>
   <si>
@@ -554,6 +549,94 @@
   </si>
   <si>
     <t>after input "green" then click "Select Checkbox" button, "Green Marker" will be auto selected</t>
+  </si>
+  <si>
+    <t>publicMethodChild.html</t>
+  </si>
+  <si>
+    <t>publicMethodChild.js</t>
+  </si>
+  <si>
+    <t>publicMethodChild.js-meta.xml</t>
+  </si>
+  <si>
+    <t>publicMethodParent.html</t>
+  </si>
+  <si>
+    <t>publicMethodParent.js</t>
+  </si>
+  <si>
+    <t>publicMethodParent.js-meta.xml</t>
+  </si>
+  <si>
+    <t>publicMethodChild.css</t>
+  </si>
+  <si>
+    <t>publicMethodParent.css</t>
+  </si>
+  <si>
+    <t>In Lightning Web Component, every component has its own shadow tree and shadow tree affetcs all the properties of our component like CSS properties, events, element, access abilities or</t>
+  </si>
+  <si>
+    <t>child component</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">how we access slot. For example if styling that we apply on one particular component it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will not effect any other component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. It does not effect the parent component it does not effect the</t>
+    </r>
+  </si>
+  <si>
+    <t>        &lt;div&gt; I am a DIV in Parent Component&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\publicMethodParent\publicMethodParent.css</t>
+  </si>
+  <si>
+    <t>div {</t>
+  </si>
+  <si>
+    <t>    color: red;</t>
+  </si>
+  <si>
+    <t>    &lt;div&gt; I am a DIV in Child Component&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\publicMethodChild\publicMethodChild.css</t>
+  </si>
+  <si>
+    <t>    color: green;</t>
+  </si>
+  <si>
+    <t>Check browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The div element in the parent component is in red color, the div element in child element is in green color. </t>
+  </si>
+  <si>
+    <t>The CSS property that we apply on the parent component stays with the parent component only, it does not cross the shadow tree of that particular component</t>
+  </si>
+  <si>
+    <t>The CSS property that we apply on the child component stays with the child component only, it does not cross the shadow tree of that particular component</t>
   </si>
 </sst>
 </file>
@@ -682,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -697,6 +780,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,13 +1136,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1104,13 +1189,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1245,13 +1330,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1298,13 +1383,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1351,13 +1436,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1404,13 +1489,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1457,13 +1542,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1510,13 +1595,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1563,13 +1648,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1616,13 +1701,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1669,13 +1754,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>109104</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1713,13 +1798,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>45968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1757,13 +1842,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>10950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1801,13 +1886,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>369795</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1848,6 +1933,55 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>87893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060A33DB-CAA3-F0C1-13E5-6473EE2A7027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705971" y="16058031"/>
+          <a:ext cx="11194676" cy="5556362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2669,27 +2803,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11DD101-CC84-494F-A002-5249EE04CCC8}">
-  <dimension ref="A2:T241"/>
+  <dimension ref="A2:T245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W247" sqref="W247"/>
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T91" sqref="T91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3137,633 +3271,669 @@
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="G87" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L87" s="6"/>
       <c r="M87" t="s">
         <v>34</v>
       </c>
       <c r="N87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
-      <c r="G88" s="10" t="s">
-        <v>117</v>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="L88" s="6"/>
-      <c r="M88" t="s">
-        <v>34</v>
-      </c>
-      <c r="N88" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
-      <c r="G89" t="s">
-        <v>28</v>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="L89" s="6"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
-      <c r="G90" t="s">
-        <v>29</v>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="L90" s="6"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
-      <c r="H91" t="s">
-        <v>30</v>
+      <c r="G91" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="L91" s="6"/>
+      <c r="M91" t="s">
+        <v>34</v>
+      </c>
+      <c r="N91" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
-      <c r="H92" t="s">
-        <v>31</v>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="L92" s="6"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
-      <c r="H93" t="s">
+      <c r="G93" s="10"/>
+      <c r="H93" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="G95" t="s">
+        <v>28</v>
+      </c>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="G96" t="s">
+        <v>29</v>
+      </c>
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="H97" t="s">
+        <v>30</v>
+      </c>
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+      <c r="H98" t="s">
+        <v>31</v>
+      </c>
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+      <c r="H99" t="s">
         <v>32</v>
       </c>
-      <c r="L93" s="6"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="7"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="9"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="7"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="9"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B99" s="5" t="s">
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G99" s="6"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B100" s="5" t="s">
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G100" s="6"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="5" t="s">
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G101" s="6"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B102" s="5" t="s">
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G102" s="6"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="5"/>
-      <c r="G103" s="6"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="5" t="s">
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>78</v>
       </c>
-      <c r="G104" s="6"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="5"/>
-      <c r="H109" s="6"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H111" s="6"/>
-      <c r="I111" t="s">
-        <v>34</v>
-      </c>
-      <c r="J111" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="5"/>
-      <c r="H112" s="6"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H113" s="6"/>
-      <c r="I113" t="s">
-        <v>34</v>
-      </c>
-      <c r="J113" t="s">
-        <v>102</v>
-      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="4"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="B114" s="5"/>
       <c r="H114" s="6"/>
-      <c r="J114" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H116" s="6"/>
+      <c r="I116" t="s">
+        <v>34</v>
+      </c>
+      <c r="J116" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="B117" s="5"/>
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H118" s="6"/>
+      <c r="I118" t="s">
+        <v>34</v>
+      </c>
+      <c r="J118" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="5"/>
+      <c r="B119" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="H119" s="6"/>
+      <c r="J119" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H120" s="6"/>
-      <c r="I120" t="s">
-        <v>34</v>
-      </c>
-      <c r="J120" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H121" s="6"/>
-      <c r="J121" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B124" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="B124" s="5"/>
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B125" s="5"/>
+      <c r="B125" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="H125" s="6"/>
+      <c r="I125" t="s">
+        <v>34</v>
+      </c>
+      <c r="J125" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H126" s="6"/>
-      <c r="I126" t="s">
-        <v>34</v>
-      </c>
       <c r="J126" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H127" s="6"/>
-      <c r="J127" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B129" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B130" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="B130" s="5"/>
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B131" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H131" s="6"/>
+      <c r="I131" t="s">
+        <v>34</v>
+      </c>
+      <c r="J131" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H132" s="6"/>
+      <c r="J132" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="9"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="9"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B137" s="2" t="s">
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="4"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="4"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B138" s="5" t="s">
+      <c r="J143" s="6"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="J138" s="6"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B139" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J139" s="6"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B140" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J140" s="6"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B141" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J141" s="6"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B142" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J142" s="6"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B143" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J143" s="6"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B144" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="J144" s="6"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J145" s="6"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B146" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J146" s="6"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B147" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J147" s="6"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B148" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J148" s="6"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B149" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J149" s="6"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J150" s="6"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B151" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J145" s="6"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B146" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="9"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B150" s="2" t="s">
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="9"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-      <c r="L150" s="3"/>
-      <c r="M150" s="4"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B151" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="M151" s="6"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B152" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="M152" s="6"/>
-      <c r="N152" t="s">
-        <v>34</v>
-      </c>
-      <c r="O152" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B153" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="M153" s="6"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B154" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="M154" s="6"/>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B155" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="M155" s="6"/>
-      <c r="N155" t="s">
-        <v>34</v>
-      </c>
-      <c r="O155" t="s">
-        <v>142</v>
-      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="4"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M156" s="6"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M157" s="6"/>
+      <c r="N157" t="s">
+        <v>34</v>
+      </c>
+      <c r="O157" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M158" s="6"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B159" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M159" s="6"/>
+      <c r="N159" t="s">
+        <v>34</v>
+      </c>
+      <c r="O159" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B160" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M156" s="6"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B157" s="7" t="s">
+      <c r="M160" s="6"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B161" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
-      <c r="J157" s="8"/>
-      <c r="K157" s="8"/>
-      <c r="L157" s="8"/>
-      <c r="M157" s="9"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="9"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="4"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="J166" s="6"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B161" s="2" t="s">
+      <c r="J167" s="6"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="4"/>
-    </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B162" s="5"/>
-      <c r="J162" s="6"/>
-    </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B163" s="5" t="s">
+      <c r="J168" s="6"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+      <c r="J169" s="6"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B170" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="J163" s="6"/>
-    </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B164" s="5" t="s">
+      <c r="J170" s="6"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J164" s="6"/>
-    </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B165" s="5"/>
-      <c r="J165" s="6"/>
-    </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B166" s="5" t="s">
+      <c r="J171" s="6"/>
+      <c r="K171" t="s">
+        <v>34</v>
+      </c>
+      <c r="L171" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="J166" s="6"/>
-    </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B167" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J167" s="6"/>
-      <c r="K167" t="s">
-        <v>34</v>
-      </c>
-      <c r="L167" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B168" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J168" s="6"/>
-      <c r="K168" t="s">
-        <v>34</v>
-      </c>
-      <c r="L168" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B169" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J169" s="6"/>
-    </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B170" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J170" s="6"/>
-    </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B171" s="5"/>
-      <c r="J171" s="6"/>
-    </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B172" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="J172" s="6"/>
       <c r="K172" t="s">
         <v>34</v>
       </c>
-      <c r="L172" s="13" t="s">
+      <c r="L172" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J173" s="6"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J174" s="6"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="J175" s="6"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B176" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J176" s="6"/>
+      <c r="K176" t="s">
+        <v>34</v>
+      </c>
+      <c r="L176" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J177" s="6"/>
+      <c r="L177" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J178" s="6"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B179" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="9"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B173" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J173" s="6"/>
-      <c r="L173" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B174" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J174" s="6"/>
-    </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B175" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="9"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3771,4 +3941,673 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8D2092-B71D-4193-9CCF-A67A07F9115C}">
+  <dimension ref="A2:N84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V108" sqref="V108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="G34" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="G39" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="H46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="H47" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="6"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="6"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="6"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="9"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="9"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/5.Component-Lifecycle-Composition.xlsx
+++ b/me/5.Component-Lifecycle-Composition.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CBC239-E874-4E71-997D-1883B4D136C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31446B7F-F553-434F-9C26-E7F695022157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Using Slots" sheetId="1" r:id="rId1"/>
     <sheet name="Public Methods" sheetId="2" r:id="rId2"/>
     <sheet name="Shadow DOM" sheetId="3" r:id="rId3"/>
+    <sheet name="Component Lifecycle" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="205">
   <si>
     <t>構成</t>
   </si>
@@ -637,6 +638,272 @@
   </si>
   <si>
     <t>The CSS property that we apply on the child component stays with the child component only, it does not cross the shadow tree of that particular component</t>
+  </si>
+  <si>
+    <t>lifecycleDemo</t>
+  </si>
+  <si>
+    <t>lifecycleDemo.html</t>
+  </si>
+  <si>
+    <t>lifecycleDemo.js</t>
+  </si>
+  <si>
+    <t>lifecycleDemo.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\lifecycleDemo\lifecycleDemo.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\lifecycleDemo\lifecycleDemo.html</t>
+  </si>
+  <si>
+    <t>    &lt;lightning-card title="Lifecycle Events Demo"&gt;&lt;/lightning-card&gt;</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\lifecycleDemo\lifecycleDemo.js</t>
+  </si>
+  <si>
+    <t>import { LightningElement } from 'lwc';</t>
+  </si>
+  <si>
+    <t>export default class LifecycleDemo extends LightningElement {</t>
+  </si>
+  <si>
+    <t>    constructor(){</t>
+  </si>
+  <si>
+    <t>        super();</t>
+  </si>
+  <si>
+    <t>        console.log('Constructor Called');</t>
+  </si>
+  <si>
+    <t>    connectedCallback(){</t>
+  </si>
+  <si>
+    <t>        console.log('Component Connected Callback is called');</t>
+  </si>
+  <si>
+    <t>    renderedCallback(){</t>
+  </si>
+  <si>
+    <t>        console.log('Component Rendered Callback is called');</t>
+  </si>
+  <si>
+    <t>    disconnectedCallback(){</t>
+  </si>
+  <si>
+    <t>        console.log('Component DisConnected Callback is called');</t>
+  </si>
+  <si>
+    <t>Component lifecycle get started when a user requests for a particular if a particular component is being requested on the UI. As soon as our component is requested the first thing that gets</t>
+  </si>
+  <si>
+    <t>As soon as the constructor is called the framework is going to check if our have any public properties in our component and if they are pending for updation, if yes then first public properties</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">called is the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>component contructor</t>
+    </r>
+  </si>
+  <si>
+    <t>but we can not do any DOM manipulation here because our DOM is not rendered yet. Although we can assign the attribute values because we have our DOM and we can change the attribute values</t>
+  </si>
+  <si>
+    <t>but can not manipulate the DOM. That means we can not add any new element programmatically or we can not remove any element existing element programmatically.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>connectedCallback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> our DOM is rendered and then framwork is going to check if we have any child component inside our component. If yes the the same cycle will repeat the contructor child</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">component will get called, the public properties will be updated then the connected callback will be called as soon as this will happened and the DOM is entered for a child component the our </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">framework is going to call the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>renderedCallback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method on the child component. We can use this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>renderedCallback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method to manipulate our DOM because at this time our DOM is completely</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rendered on the UI and once this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>renderedCallback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method is called on the child component then child component will be called on the parent component as well.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If user request for DOM removal or if a user navigate through some other page then our DOM is going to be removed from UI and the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>disconnectedCallback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method will be called so we can use this</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>disconnectedCallback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method to remove any kind of data connection if we already have it open</t>
+    </r>
+  </si>
+  <si>
+    <t>super() is mandatory statement inside our constructor and it should be the first statement of our constructor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">get updated after that the components DOM is inserted inside the page and then the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>connectedCallback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method gets called. In that connected callback method we already have our DOM inserted</t>
+    </r>
+  </si>
+  <si>
+    <t>After refresh page we can see constructor method should be called first then the connectedCallback then the renderedCallback then the disconnectedCallback</t>
+  </si>
+  <si>
+    <t>navigate to some other page(Opportunities) then disconnectedCallback will also be called</t>
+  </si>
+  <si>
+    <t>we can see before the constructor metod is called again the disconnectedCallback event was fired when we navigate to nother page</t>
   </si>
 </sst>
 </file>
@@ -1987,6 +2254,449 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>82433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81527914-BDD3-9961-828C-1C592C6BCA20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="761999" y="657225"/>
+          <a:ext cx="9820275" cy="5521208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9A56D6-DC26-3817-8C5C-C13A75A7E250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2876550" y="342900"/>
+          <a:ext cx="161925" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682B31E3-4086-7621-112D-B95C3F4FE923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="1847850"/>
+          <a:ext cx="2000250" cy="3705225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F45FD93-C4F0-6F23-4CA8-FE1447764152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6591300" y="2257425"/>
+          <a:ext cx="1876425" cy="5286375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>26745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DDABA9-E39F-BC7F-BEDC-D2722F25E30C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717096" y="26250900"/>
+          <a:ext cx="11189154" cy="5398845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BFC74E-F04A-A323-42B8-D9728130773B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="907676" y="26053676"/>
+          <a:ext cx="1647265" cy="4852148"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>159451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FF9CB4-83D3-5550-E421-D3BBE3467803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739589" y="32295354"/>
+          <a:ext cx="11105029" cy="3487597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>167646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5E76EA-83EE-F8F4-2F23-EC378648D5FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694765" y="36497560"/>
+          <a:ext cx="11161059" cy="5008586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>94167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F6EC87-F0C1-62E8-8FD6-039C926DD8CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694765" y="41853971"/>
+          <a:ext cx="11082618" cy="5103196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3947,8 +4657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8D2092-B71D-4193-9CCF-A67A07F9115C}">
   <dimension ref="A2:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V108" sqref="V108"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4172,15 +4882,13 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
-      <c r="G34" s="14" t="s">
+      <c r="G34" t="s">
         <v>114</v>
       </c>
-      <c r="H34" s="14"/>
       <c r="L34" s="6"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
-      <c r="G35" s="14"/>
       <c r="H35" s="10" t="s">
         <v>154</v>
       </c>
@@ -4194,7 +4902,6 @@
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
-      <c r="G36" s="14"/>
       <c r="H36" s="10" t="s">
         <v>148</v>
       </c>
@@ -4208,31 +4915,27 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14" t="s">
+      <c r="H37" t="s">
         <v>149</v>
       </c>
       <c r="L37" s="6"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14" t="s">
+      <c r="H38" t="s">
         <v>150</v>
       </c>
       <c r="L38" s="6"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
-      <c r="G39" s="14" t="s">
+      <c r="G39" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="14"/>
       <c r="L39" s="6"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
-      <c r="G40" s="14"/>
       <c r="H40" s="10" t="s">
         <v>155</v>
       </c>
@@ -4246,7 +4949,6 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
-      <c r="G41" s="14"/>
       <c r="H41" s="10" t="s">
         <v>151</v>
       </c>
@@ -4260,16 +4962,14 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14" t="s">
+      <c r="H42" t="s">
         <v>152</v>
       </c>
       <c r="L42" s="6"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14" t="s">
+      <c r="H43" t="s">
         <v>153</v>
       </c>
       <c r="L43" s="6"/>
@@ -4347,96 +5047,36 @@
       <c r="B54" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
       <c r="M54" s="6"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
       <c r="M55" s="6"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
       <c r="M58" s="6"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
       <c r="M59" s="6"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -4503,58 +5143,34 @@
       <c r="B69" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
       <c r="G69" s="6"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
       <c r="G70" s="6"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
       <c r="G71" s="6"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
       <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
       <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4610,4 +5226,3123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0799D270-973B-44E0-8AA1-881E21F645F7}">
+  <dimension ref="A2:T245"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="G51" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="G66" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="L66" s="6"/>
+      <c r="M66" t="s">
+        <v>34</v>
+      </c>
+      <c r="N66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="H67" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="H68" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="H69" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="G70" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="H71" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="H73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="G74" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="H75" t="s">
+        <v>26</v>
+      </c>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="H76" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="G77" t="s">
+        <v>114</v>
+      </c>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="H78" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="H79" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="H80" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="H81" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="G82" t="s">
+        <v>116</v>
+      </c>
+      <c r="H82" s="14"/>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="H83" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="H84" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="H85" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="H86" t="s">
+        <v>153</v>
+      </c>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="H89" t="s">
+        <v>30</v>
+      </c>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+      <c r="H90" t="s">
+        <v>31</v>
+      </c>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="H91" t="s">
+        <v>32</v>
+      </c>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="7"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="9"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="6"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="6"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="6"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="6"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="6"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="6"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="6"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="9"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="9"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="6"/>
+      <c r="I118" t="s">
+        <v>34</v>
+      </c>
+      <c r="J118" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B132" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B133" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="9"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="4"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
+      <c r="N138" s="15"/>
+      <c r="O138" s="15"/>
+      <c r="P138" s="15"/>
+      <c r="Q138" s="15"/>
+      <c r="R138" s="15"/>
+      <c r="S138" s="15"/>
+      <c r="T138" s="6"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15"/>
+      <c r="N139" s="15"/>
+      <c r="O139" s="15"/>
+      <c r="P139" s="15"/>
+      <c r="Q139" s="15"/>
+      <c r="R139" s="15"/>
+      <c r="S139" s="15"/>
+      <c r="T139" s="6"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+      <c r="M140" s="15"/>
+      <c r="N140" s="15"/>
+      <c r="O140" s="15"/>
+      <c r="P140" s="15"/>
+      <c r="Q140" s="15"/>
+      <c r="R140" s="15"/>
+      <c r="S140" s="15"/>
+      <c r="T140" s="6"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="15"/>
+      <c r="M141" s="15"/>
+      <c r="N141" s="15"/>
+      <c r="O141" s="15"/>
+      <c r="P141" s="15"/>
+      <c r="Q141" s="15"/>
+      <c r="R141" s="15"/>
+      <c r="S141" s="15"/>
+      <c r="T141" s="6"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
+      <c r="O142" s="15"/>
+      <c r="P142" s="15"/>
+      <c r="Q142" s="15"/>
+      <c r="R142" s="15"/>
+      <c r="S142" s="15"/>
+      <c r="T142" s="6"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+      <c r="N143" s="15"/>
+      <c r="O143" s="15"/>
+      <c r="P143" s="15"/>
+      <c r="Q143" s="15"/>
+      <c r="R143" s="15"/>
+      <c r="S143" s="15"/>
+      <c r="T143" s="6"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="15"/>
+      <c r="M144" s="15"/>
+      <c r="N144" s="15"/>
+      <c r="O144" s="15"/>
+      <c r="P144" s="15"/>
+      <c r="Q144" s="15"/>
+      <c r="R144" s="15"/>
+      <c r="S144" s="15"/>
+      <c r="T144" s="6"/>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
+      <c r="O145" s="15"/>
+      <c r="P145" s="15"/>
+      <c r="Q145" s="15"/>
+      <c r="R145" s="15"/>
+      <c r="S145" s="15"/>
+      <c r="T145" s="6"/>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
+      <c r="O146" s="15"/>
+      <c r="P146" s="15"/>
+      <c r="Q146" s="15"/>
+      <c r="R146" s="15"/>
+      <c r="S146" s="15"/>
+      <c r="T146" s="6"/>
+    </row>
+    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
+      <c r="N147" s="15"/>
+      <c r="O147" s="15"/>
+      <c r="P147" s="15"/>
+      <c r="Q147" s="15"/>
+      <c r="R147" s="15"/>
+      <c r="S147" s="15"/>
+      <c r="T147" s="6"/>
+    </row>
+    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="15"/>
+      <c r="N148" s="15"/>
+      <c r="O148" s="15"/>
+      <c r="P148" s="15"/>
+      <c r="Q148" s="15"/>
+      <c r="R148" s="15"/>
+      <c r="S148" s="15"/>
+      <c r="T148" s="6"/>
+    </row>
+    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="15"/>
+      <c r="N149" s="15"/>
+      <c r="O149" s="15"/>
+      <c r="P149" s="15"/>
+      <c r="Q149" s="15"/>
+      <c r="R149" s="15"/>
+      <c r="S149" s="15"/>
+      <c r="T149" s="6"/>
+    </row>
+    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="15"/>
+      <c r="N150" s="15"/>
+      <c r="O150" s="15"/>
+      <c r="P150" s="15"/>
+      <c r="Q150" s="15"/>
+      <c r="R150" s="15"/>
+      <c r="S150" s="15"/>
+      <c r="T150" s="6"/>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="15"/>
+      <c r="N151" s="15"/>
+      <c r="O151" s="15"/>
+      <c r="P151" s="15"/>
+      <c r="Q151" s="15"/>
+      <c r="R151" s="15"/>
+      <c r="S151" s="15"/>
+      <c r="T151" s="6"/>
+    </row>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="15"/>
+      <c r="N152" s="15"/>
+      <c r="O152" s="15"/>
+      <c r="P152" s="15"/>
+      <c r="Q152" s="15"/>
+      <c r="R152" s="15"/>
+      <c r="S152" s="15"/>
+      <c r="T152" s="6"/>
+    </row>
+    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="15"/>
+      <c r="M153" s="15"/>
+      <c r="N153" s="15"/>
+      <c r="O153" s="15"/>
+      <c r="P153" s="15"/>
+      <c r="Q153" s="15"/>
+      <c r="R153" s="15"/>
+      <c r="S153" s="15"/>
+      <c r="T153" s="6"/>
+    </row>
+    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="15"/>
+      <c r="M154" s="15"/>
+      <c r="N154" s="15"/>
+      <c r="O154" s="15"/>
+      <c r="P154" s="15"/>
+      <c r="Q154" s="15"/>
+      <c r="R154" s="15"/>
+      <c r="S154" s="15"/>
+      <c r="T154" s="6"/>
+    </row>
+    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="15"/>
+      <c r="N155" s="15"/>
+      <c r="O155" s="15"/>
+      <c r="P155" s="15"/>
+      <c r="Q155" s="15"/>
+      <c r="R155" s="15"/>
+      <c r="S155" s="15"/>
+      <c r="T155" s="6"/>
+    </row>
+    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="15"/>
+      <c r="N156" s="15"/>
+      <c r="O156" s="15"/>
+      <c r="P156" s="15"/>
+      <c r="Q156" s="15"/>
+      <c r="R156" s="15"/>
+      <c r="S156" s="15"/>
+      <c r="T156" s="6"/>
+    </row>
+    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="15"/>
+      <c r="M157" s="15"/>
+      <c r="N157" s="15"/>
+      <c r="O157" s="15"/>
+      <c r="P157" s="15"/>
+      <c r="Q157" s="15"/>
+      <c r="R157" s="15"/>
+      <c r="S157" s="15"/>
+      <c r="T157" s="6"/>
+    </row>
+    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="15"/>
+      <c r="N158" s="15"/>
+      <c r="O158" s="15"/>
+      <c r="P158" s="15"/>
+      <c r="Q158" s="15"/>
+      <c r="R158" s="15"/>
+      <c r="S158" s="15"/>
+      <c r="T158" s="6"/>
+    </row>
+    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="15"/>
+      <c r="N159" s="15"/>
+      <c r="O159" s="15"/>
+      <c r="P159" s="15"/>
+      <c r="Q159" s="15"/>
+      <c r="R159" s="15"/>
+      <c r="S159" s="15"/>
+      <c r="T159" s="6"/>
+    </row>
+    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15"/>
+      <c r="N160" s="15"/>
+      <c r="O160" s="15"/>
+      <c r="P160" s="15"/>
+      <c r="Q160" s="15"/>
+      <c r="R160" s="15"/>
+      <c r="S160" s="15"/>
+      <c r="T160" s="6"/>
+    </row>
+    <row r="161" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
+      <c r="N161" s="15"/>
+      <c r="O161" s="15"/>
+      <c r="P161" s="15"/>
+      <c r="Q161" s="15"/>
+      <c r="R161" s="15"/>
+      <c r="S161" s="15"/>
+      <c r="T161" s="6"/>
+    </row>
+    <row r="162" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="15"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="15"/>
+      <c r="N162" s="15"/>
+      <c r="O162" s="15"/>
+      <c r="P162" s="15"/>
+      <c r="Q162" s="15"/>
+      <c r="R162" s="15"/>
+      <c r="S162" s="15"/>
+      <c r="T162" s="6"/>
+    </row>
+    <row r="163" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
+      <c r="N163" s="15"/>
+      <c r="O163" s="15"/>
+      <c r="P163" s="15"/>
+      <c r="Q163" s="15"/>
+      <c r="R163" s="15"/>
+      <c r="S163" s="15"/>
+      <c r="T163" s="6"/>
+    </row>
+    <row r="164" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="15"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="15"/>
+      <c r="N164" s="15"/>
+      <c r="O164" s="15"/>
+      <c r="P164" s="15"/>
+      <c r="Q164" s="15"/>
+      <c r="R164" s="15"/>
+      <c r="S164" s="15"/>
+      <c r="T164" s="6"/>
+    </row>
+    <row r="165" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="15"/>
+      <c r="N165" s="15"/>
+      <c r="O165" s="15"/>
+      <c r="P165" s="15"/>
+      <c r="Q165" s="15"/>
+      <c r="R165" s="15"/>
+      <c r="S165" s="15"/>
+      <c r="T165" s="6"/>
+    </row>
+    <row r="166" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="15"/>
+      <c r="L166" s="15"/>
+      <c r="M166" s="15"/>
+      <c r="N166" s="15"/>
+      <c r="O166" s="15"/>
+      <c r="P166" s="15"/>
+      <c r="Q166" s="15"/>
+      <c r="R166" s="15"/>
+      <c r="S166" s="15"/>
+      <c r="T166" s="6"/>
+    </row>
+    <row r="167" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B167" s="7"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="8"/>
+      <c r="M167" s="8"/>
+      <c r="N167" s="8"/>
+      <c r="O167" s="8"/>
+      <c r="P167" s="8"/>
+      <c r="Q167" s="8"/>
+      <c r="R167" s="8"/>
+      <c r="S167" s="8"/>
+      <c r="T167" s="9"/>
+    </row>
+    <row r="168" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B168" s="15"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="15"/>
+      <c r="L168" s="15"/>
+      <c r="M168" s="15"/>
+      <c r="N168" s="15"/>
+      <c r="O168" s="15"/>
+      <c r="P168" s="15"/>
+      <c r="Q168" s="15"/>
+      <c r="R168" s="15"/>
+      <c r="S168" s="15"/>
+      <c r="T168" s="15"/>
+    </row>
+    <row r="170" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B170" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="4"/>
+    </row>
+    <row r="171" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="15"/>
+      <c r="L171" s="15"/>
+      <c r="M171" s="15"/>
+      <c r="N171" s="15"/>
+      <c r="O171" s="15"/>
+      <c r="P171" s="15"/>
+      <c r="Q171" s="15"/>
+      <c r="R171" s="15"/>
+      <c r="S171" s="15"/>
+      <c r="T171" s="6"/>
+    </row>
+    <row r="172" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="15"/>
+      <c r="L172" s="15"/>
+      <c r="M172" s="15"/>
+      <c r="N172" s="15"/>
+      <c r="O172" s="15"/>
+      <c r="P172" s="15"/>
+      <c r="Q172" s="15"/>
+      <c r="R172" s="15"/>
+      <c r="S172" s="15"/>
+      <c r="T172" s="6"/>
+    </row>
+    <row r="173" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B173" s="5"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+      <c r="M173" s="15"/>
+      <c r="N173" s="15"/>
+      <c r="O173" s="15"/>
+      <c r="P173" s="15"/>
+      <c r="Q173" s="15"/>
+      <c r="R173" s="15"/>
+      <c r="S173" s="15"/>
+      <c r="T173" s="6"/>
+    </row>
+    <row r="174" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="15"/>
+      <c r="K174" s="15"/>
+      <c r="L174" s="15"/>
+      <c r="M174" s="15"/>
+      <c r="N174" s="15"/>
+      <c r="O174" s="15"/>
+      <c r="P174" s="15"/>
+      <c r="Q174" s="15"/>
+      <c r="R174" s="15"/>
+      <c r="S174" s="15"/>
+      <c r="T174" s="6"/>
+    </row>
+    <row r="175" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="15"/>
+      <c r="L175" s="15"/>
+      <c r="M175" s="15"/>
+      <c r="N175" s="15"/>
+      <c r="O175" s="15"/>
+      <c r="P175" s="15"/>
+      <c r="Q175" s="15"/>
+      <c r="R175" s="15"/>
+      <c r="S175" s="15"/>
+      <c r="T175" s="6"/>
+    </row>
+    <row r="176" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="15"/>
+      <c r="K176" s="15"/>
+      <c r="L176" s="15"/>
+      <c r="M176" s="15"/>
+      <c r="N176" s="15"/>
+      <c r="O176" s="15"/>
+      <c r="P176" s="15"/>
+      <c r="Q176" s="15"/>
+      <c r="R176" s="15"/>
+      <c r="S176" s="15"/>
+      <c r="T176" s="6"/>
+    </row>
+    <row r="177" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="15"/>
+      <c r="K177" s="15"/>
+      <c r="L177" s="15"/>
+      <c r="M177" s="15"/>
+      <c r="N177" s="15"/>
+      <c r="O177" s="15"/>
+      <c r="P177" s="15"/>
+      <c r="Q177" s="15"/>
+      <c r="R177" s="15"/>
+      <c r="S177" s="15"/>
+      <c r="T177" s="6"/>
+    </row>
+    <row r="178" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="15"/>
+      <c r="K178" s="15"/>
+      <c r="L178" s="15"/>
+      <c r="M178" s="15"/>
+      <c r="N178" s="15"/>
+      <c r="O178" s="15"/>
+      <c r="P178" s="15"/>
+      <c r="Q178" s="15"/>
+      <c r="R178" s="15"/>
+      <c r="S178" s="15"/>
+      <c r="T178" s="6"/>
+    </row>
+    <row r="179" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="15"/>
+      <c r="K179" s="15"/>
+      <c r="L179" s="15"/>
+      <c r="M179" s="15"/>
+      <c r="N179" s="15"/>
+      <c r="O179" s="15"/>
+      <c r="P179" s="15"/>
+      <c r="Q179" s="15"/>
+      <c r="R179" s="15"/>
+      <c r="S179" s="15"/>
+      <c r="T179" s="6"/>
+    </row>
+    <row r="180" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="15"/>
+      <c r="K180" s="15"/>
+      <c r="L180" s="15"/>
+      <c r="M180" s="15"/>
+      <c r="N180" s="15"/>
+      <c r="O180" s="15"/>
+      <c r="P180" s="15"/>
+      <c r="Q180" s="15"/>
+      <c r="R180" s="15"/>
+      <c r="S180" s="15"/>
+      <c r="T180" s="6"/>
+    </row>
+    <row r="181" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B181" s="5"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="15"/>
+      <c r="K181" s="15"/>
+      <c r="L181" s="15"/>
+      <c r="M181" s="15"/>
+      <c r="N181" s="15"/>
+      <c r="O181" s="15"/>
+      <c r="P181" s="15"/>
+      <c r="Q181" s="15"/>
+      <c r="R181" s="15"/>
+      <c r="S181" s="15"/>
+      <c r="T181" s="6"/>
+    </row>
+    <row r="182" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B182" s="5"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="15"/>
+      <c r="K182" s="15"/>
+      <c r="L182" s="15"/>
+      <c r="M182" s="15"/>
+      <c r="N182" s="15"/>
+      <c r="O182" s="15"/>
+      <c r="P182" s="15"/>
+      <c r="Q182" s="15"/>
+      <c r="R182" s="15"/>
+      <c r="S182" s="15"/>
+      <c r="T182" s="6"/>
+    </row>
+    <row r="183" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="15"/>
+      <c r="K183" s="15"/>
+      <c r="L183" s="15"/>
+      <c r="M183" s="15"/>
+      <c r="N183" s="15"/>
+      <c r="O183" s="15"/>
+      <c r="P183" s="15"/>
+      <c r="Q183" s="15"/>
+      <c r="R183" s="15"/>
+      <c r="S183" s="15"/>
+      <c r="T183" s="6"/>
+    </row>
+    <row r="184" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="15"/>
+      <c r="K184" s="15"/>
+      <c r="L184" s="15"/>
+      <c r="M184" s="15"/>
+      <c r="N184" s="15"/>
+      <c r="O184" s="15"/>
+      <c r="P184" s="15"/>
+      <c r="Q184" s="15"/>
+      <c r="R184" s="15"/>
+      <c r="S184" s="15"/>
+      <c r="T184" s="6"/>
+    </row>
+    <row r="185" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B185" s="5"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="15"/>
+      <c r="K185" s="15"/>
+      <c r="L185" s="15"/>
+      <c r="M185" s="15"/>
+      <c r="N185" s="15"/>
+      <c r="O185" s="15"/>
+      <c r="P185" s="15"/>
+      <c r="Q185" s="15"/>
+      <c r="R185" s="15"/>
+      <c r="S185" s="15"/>
+      <c r="T185" s="6"/>
+    </row>
+    <row r="186" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B186" s="5"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="15"/>
+      <c r="K186" s="15"/>
+      <c r="L186" s="15"/>
+      <c r="M186" s="15"/>
+      <c r="N186" s="15"/>
+      <c r="O186" s="15"/>
+      <c r="P186" s="15"/>
+      <c r="Q186" s="15"/>
+      <c r="R186" s="15"/>
+      <c r="S186" s="15"/>
+      <c r="T186" s="6"/>
+    </row>
+    <row r="187" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B187" s="5"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="15"/>
+      <c r="K187" s="15"/>
+      <c r="L187" s="15"/>
+      <c r="M187" s="15"/>
+      <c r="N187" s="15"/>
+      <c r="O187" s="15"/>
+      <c r="P187" s="15"/>
+      <c r="Q187" s="15"/>
+      <c r="R187" s="15"/>
+      <c r="S187" s="15"/>
+      <c r="T187" s="6"/>
+    </row>
+    <row r="188" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B188" s="5"/>
+      <c r="C188" s="15"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="15"/>
+      <c r="K188" s="15"/>
+      <c r="L188" s="15"/>
+      <c r="M188" s="15"/>
+      <c r="N188" s="15"/>
+      <c r="O188" s="15"/>
+      <c r="P188" s="15"/>
+      <c r="Q188" s="15"/>
+      <c r="R188" s="15"/>
+      <c r="S188" s="15"/>
+      <c r="T188" s="6"/>
+    </row>
+    <row r="189" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B189" s="5"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="15"/>
+      <c r="J189" s="15"/>
+      <c r="K189" s="15"/>
+      <c r="L189" s="15"/>
+      <c r="M189" s="15"/>
+      <c r="N189" s="15"/>
+      <c r="O189" s="15"/>
+      <c r="P189" s="15"/>
+      <c r="Q189" s="15"/>
+      <c r="R189" s="15"/>
+      <c r="S189" s="15"/>
+      <c r="T189" s="6"/>
+    </row>
+    <row r="190" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B190" s="5"/>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="15"/>
+      <c r="J190" s="15"/>
+      <c r="K190" s="15"/>
+      <c r="L190" s="15"/>
+      <c r="M190" s="15"/>
+      <c r="N190" s="15"/>
+      <c r="O190" s="15"/>
+      <c r="P190" s="15"/>
+      <c r="Q190" s="15"/>
+      <c r="R190" s="15"/>
+      <c r="S190" s="15"/>
+      <c r="T190" s="6"/>
+    </row>
+    <row r="191" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B191" s="5"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="15"/>
+      <c r="K191" s="15"/>
+      <c r="L191" s="15"/>
+      <c r="M191" s="15"/>
+      <c r="N191" s="15"/>
+      <c r="O191" s="15"/>
+      <c r="P191" s="15"/>
+      <c r="Q191" s="15"/>
+      <c r="R191" s="15"/>
+      <c r="S191" s="15"/>
+      <c r="T191" s="6"/>
+    </row>
+    <row r="192" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B192" s="5"/>
+      <c r="C192" s="15"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="15"/>
+      <c r="J192" s="15"/>
+      <c r="K192" s="15"/>
+      <c r="L192" s="15"/>
+      <c r="M192" s="15"/>
+      <c r="N192" s="15"/>
+      <c r="O192" s="15"/>
+      <c r="P192" s="15"/>
+      <c r="Q192" s="15"/>
+      <c r="R192" s="15"/>
+      <c r="S192" s="15"/>
+      <c r="T192" s="6"/>
+    </row>
+    <row r="193" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B193" s="5"/>
+      <c r="C193" s="15"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="15"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="15"/>
+      <c r="H193" s="15"/>
+      <c r="I193" s="15"/>
+      <c r="J193" s="15"/>
+      <c r="K193" s="15"/>
+      <c r="L193" s="15"/>
+      <c r="M193" s="15"/>
+      <c r="N193" s="15"/>
+      <c r="O193" s="15"/>
+      <c r="P193" s="15"/>
+      <c r="Q193" s="15"/>
+      <c r="R193" s="15"/>
+      <c r="S193" s="15"/>
+      <c r="T193" s="6"/>
+    </row>
+    <row r="194" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B194" s="5"/>
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="15"/>
+      <c r="H194" s="15"/>
+      <c r="I194" s="15"/>
+      <c r="J194" s="15"/>
+      <c r="K194" s="15"/>
+      <c r="L194" s="15"/>
+      <c r="M194" s="15"/>
+      <c r="N194" s="15"/>
+      <c r="O194" s="15"/>
+      <c r="P194" s="15"/>
+      <c r="Q194" s="15"/>
+      <c r="R194" s="15"/>
+      <c r="S194" s="15"/>
+      <c r="T194" s="6"/>
+    </row>
+    <row r="195" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B195" s="5"/>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="15"/>
+      <c r="H195" s="15"/>
+      <c r="I195" s="15"/>
+      <c r="J195" s="15"/>
+      <c r="K195" s="15"/>
+      <c r="L195" s="15"/>
+      <c r="M195" s="15"/>
+      <c r="N195" s="15"/>
+      <c r="O195" s="15"/>
+      <c r="P195" s="15"/>
+      <c r="Q195" s="15"/>
+      <c r="R195" s="15"/>
+      <c r="S195" s="15"/>
+      <c r="T195" s="6"/>
+    </row>
+    <row r="196" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B196" s="5"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="15"/>
+      <c r="H196" s="15"/>
+      <c r="I196" s="15"/>
+      <c r="J196" s="15"/>
+      <c r="K196" s="15"/>
+      <c r="L196" s="15"/>
+      <c r="M196" s="15"/>
+      <c r="N196" s="15"/>
+      <c r="O196" s="15"/>
+      <c r="P196" s="15"/>
+      <c r="Q196" s="15"/>
+      <c r="R196" s="15"/>
+      <c r="S196" s="15"/>
+      <c r="T196" s="6"/>
+    </row>
+    <row r="197" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B197" s="5"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="15"/>
+      <c r="I197" s="15"/>
+      <c r="J197" s="15"/>
+      <c r="K197" s="15"/>
+      <c r="L197" s="15"/>
+      <c r="M197" s="15"/>
+      <c r="N197" s="15"/>
+      <c r="O197" s="15"/>
+      <c r="P197" s="15"/>
+      <c r="Q197" s="15"/>
+      <c r="R197" s="15"/>
+      <c r="S197" s="15"/>
+      <c r="T197" s="6"/>
+    </row>
+    <row r="198" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B198" s="5"/>
+      <c r="C198" s="15"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="15"/>
+      <c r="I198" s="15"/>
+      <c r="J198" s="15"/>
+      <c r="K198" s="15"/>
+      <c r="L198" s="15"/>
+      <c r="M198" s="15"/>
+      <c r="N198" s="15"/>
+      <c r="O198" s="15"/>
+      <c r="P198" s="15"/>
+      <c r="Q198" s="15"/>
+      <c r="R198" s="15"/>
+      <c r="S198" s="15"/>
+      <c r="T198" s="6"/>
+    </row>
+    <row r="199" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B199" s="5"/>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="15"/>
+      <c r="I199" s="15"/>
+      <c r="J199" s="15"/>
+      <c r="K199" s="15"/>
+      <c r="L199" s="15"/>
+      <c r="M199" s="15"/>
+      <c r="N199" s="15"/>
+      <c r="O199" s="15"/>
+      <c r="P199" s="15"/>
+      <c r="Q199" s="15"/>
+      <c r="R199" s="15"/>
+      <c r="S199" s="15"/>
+      <c r="T199" s="6"/>
+    </row>
+    <row r="200" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B200" s="5"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="15"/>
+      <c r="H200" s="15"/>
+      <c r="I200" s="15"/>
+      <c r="J200" s="15"/>
+      <c r="K200" s="15"/>
+      <c r="L200" s="15"/>
+      <c r="M200" s="15"/>
+      <c r="N200" s="15"/>
+      <c r="O200" s="15"/>
+      <c r="P200" s="15"/>
+      <c r="Q200" s="15"/>
+      <c r="R200" s="15"/>
+      <c r="S200" s="15"/>
+      <c r="T200" s="6"/>
+    </row>
+    <row r="201" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B201" s="5"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
+      <c r="I201" s="15"/>
+      <c r="J201" s="15"/>
+      <c r="K201" s="15"/>
+      <c r="L201" s="15"/>
+      <c r="M201" s="15"/>
+      <c r="N201" s="15"/>
+      <c r="O201" s="15"/>
+      <c r="P201" s="15"/>
+      <c r="Q201" s="15"/>
+      <c r="R201" s="15"/>
+      <c r="S201" s="15"/>
+      <c r="T201" s="6"/>
+    </row>
+    <row r="202" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B202" s="5"/>
+      <c r="C202" s="15"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="15"/>
+      <c r="H202" s="15"/>
+      <c r="I202" s="15"/>
+      <c r="J202" s="15"/>
+      <c r="K202" s="15"/>
+      <c r="L202" s="15"/>
+      <c r="M202" s="15"/>
+      <c r="N202" s="15"/>
+      <c r="O202" s="15"/>
+      <c r="P202" s="15"/>
+      <c r="Q202" s="15"/>
+      <c r="R202" s="15"/>
+      <c r="S202" s="15"/>
+      <c r="T202" s="6"/>
+    </row>
+    <row r="203" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B203" s="5"/>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="15"/>
+      <c r="I203" s="15"/>
+      <c r="J203" s="15"/>
+      <c r="K203" s="15"/>
+      <c r="L203" s="15"/>
+      <c r="M203" s="15"/>
+      <c r="N203" s="15"/>
+      <c r="O203" s="15"/>
+      <c r="P203" s="15"/>
+      <c r="Q203" s="15"/>
+      <c r="R203" s="15"/>
+      <c r="S203" s="15"/>
+      <c r="T203" s="6"/>
+    </row>
+    <row r="204" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B204" s="5"/>
+      <c r="C204" s="15"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="15"/>
+      <c r="I204" s="15"/>
+      <c r="J204" s="15"/>
+      <c r="K204" s="15"/>
+      <c r="L204" s="15"/>
+      <c r="M204" s="15"/>
+      <c r="N204" s="15"/>
+      <c r="O204" s="15"/>
+      <c r="P204" s="15"/>
+      <c r="Q204" s="15"/>
+      <c r="R204" s="15"/>
+      <c r="S204" s="15"/>
+      <c r="T204" s="6"/>
+    </row>
+    <row r="205" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B205" s="5"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="15"/>
+      <c r="H205" s="15"/>
+      <c r="I205" s="15"/>
+      <c r="J205" s="15"/>
+      <c r="K205" s="15"/>
+      <c r="L205" s="15"/>
+      <c r="M205" s="15"/>
+      <c r="N205" s="15"/>
+      <c r="O205" s="15"/>
+      <c r="P205" s="15"/>
+      <c r="Q205" s="15"/>
+      <c r="R205" s="15"/>
+      <c r="S205" s="15"/>
+      <c r="T205" s="6"/>
+    </row>
+    <row r="206" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B206" s="5"/>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="15"/>
+      <c r="H206" s="15"/>
+      <c r="I206" s="15"/>
+      <c r="J206" s="15"/>
+      <c r="K206" s="15"/>
+      <c r="L206" s="15"/>
+      <c r="M206" s="15"/>
+      <c r="N206" s="15"/>
+      <c r="O206" s="15"/>
+      <c r="P206" s="15"/>
+      <c r="Q206" s="15"/>
+      <c r="R206" s="15"/>
+      <c r="S206" s="15"/>
+      <c r="T206" s="6"/>
+    </row>
+    <row r="207" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B207" s="5"/>
+      <c r="C207" s="15"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
+      <c r="I207" s="15"/>
+      <c r="J207" s="15"/>
+      <c r="K207" s="15"/>
+      <c r="L207" s="15"/>
+      <c r="M207" s="15"/>
+      <c r="N207" s="15"/>
+      <c r="O207" s="15"/>
+      <c r="P207" s="15"/>
+      <c r="Q207" s="15"/>
+      <c r="R207" s="15"/>
+      <c r="S207" s="15"/>
+      <c r="T207" s="6"/>
+    </row>
+    <row r="208" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B208" s="5"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
+      <c r="I208" s="15"/>
+      <c r="J208" s="15"/>
+      <c r="K208" s="15"/>
+      <c r="L208" s="15"/>
+      <c r="M208" s="15"/>
+      <c r="N208" s="15"/>
+      <c r="O208" s="15"/>
+      <c r="P208" s="15"/>
+      <c r="Q208" s="15"/>
+      <c r="R208" s="15"/>
+      <c r="S208" s="15"/>
+      <c r="T208" s="6"/>
+    </row>
+    <row r="209" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B209" s="5"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="15"/>
+      <c r="H209" s="15"/>
+      <c r="I209" s="15"/>
+      <c r="J209" s="15"/>
+      <c r="K209" s="15"/>
+      <c r="L209" s="15"/>
+      <c r="M209" s="15"/>
+      <c r="N209" s="15"/>
+      <c r="O209" s="15"/>
+      <c r="P209" s="15"/>
+      <c r="Q209" s="15"/>
+      <c r="R209" s="15"/>
+      <c r="S209" s="15"/>
+      <c r="T209" s="6"/>
+    </row>
+    <row r="210" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B210" s="5"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+      <c r="I210" s="15"/>
+      <c r="J210" s="15"/>
+      <c r="K210" s="15"/>
+      <c r="L210" s="15"/>
+      <c r="M210" s="15"/>
+      <c r="N210" s="15"/>
+      <c r="O210" s="15"/>
+      <c r="P210" s="15"/>
+      <c r="Q210" s="15"/>
+      <c r="R210" s="15"/>
+      <c r="S210" s="15"/>
+      <c r="T210" s="6"/>
+    </row>
+    <row r="211" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B211" s="5"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
+      <c r="I211" s="15"/>
+      <c r="J211" s="15"/>
+      <c r="K211" s="15"/>
+      <c r="L211" s="15"/>
+      <c r="M211" s="15"/>
+      <c r="N211" s="15"/>
+      <c r="O211" s="15"/>
+      <c r="P211" s="15"/>
+      <c r="Q211" s="15"/>
+      <c r="R211" s="15"/>
+      <c r="S211" s="15"/>
+      <c r="T211" s="6"/>
+    </row>
+    <row r="212" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B212" s="5"/>
+      <c r="C212" s="15"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="15"/>
+      <c r="H212" s="15"/>
+      <c r="I212" s="15"/>
+      <c r="J212" s="15"/>
+      <c r="K212" s="15"/>
+      <c r="L212" s="15"/>
+      <c r="M212" s="15"/>
+      <c r="N212" s="15"/>
+      <c r="O212" s="15"/>
+      <c r="P212" s="15"/>
+      <c r="Q212" s="15"/>
+      <c r="R212" s="15"/>
+      <c r="S212" s="15"/>
+      <c r="T212" s="6"/>
+    </row>
+    <row r="213" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B213" s="5"/>
+      <c r="C213" s="15"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="15"/>
+      <c r="G213" s="15"/>
+      <c r="H213" s="15"/>
+      <c r="I213" s="15"/>
+      <c r="J213" s="15"/>
+      <c r="K213" s="15"/>
+      <c r="L213" s="15"/>
+      <c r="M213" s="15"/>
+      <c r="N213" s="15"/>
+      <c r="O213" s="15"/>
+      <c r="P213" s="15"/>
+      <c r="Q213" s="15"/>
+      <c r="R213" s="15"/>
+      <c r="S213" s="15"/>
+      <c r="T213" s="6"/>
+    </row>
+    <row r="214" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B214" s="5"/>
+      <c r="C214" s="15"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="15"/>
+      <c r="H214" s="15"/>
+      <c r="I214" s="15"/>
+      <c r="J214" s="15"/>
+      <c r="K214" s="15"/>
+      <c r="L214" s="15"/>
+      <c r="M214" s="15"/>
+      <c r="N214" s="15"/>
+      <c r="O214" s="15"/>
+      <c r="P214" s="15"/>
+      <c r="Q214" s="15"/>
+      <c r="R214" s="15"/>
+      <c r="S214" s="15"/>
+      <c r="T214" s="6"/>
+    </row>
+    <row r="215" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B215" s="5"/>
+      <c r="C215" s="15"/>
+      <c r="D215" s="15"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="15"/>
+      <c r="G215" s="15"/>
+      <c r="H215" s="15"/>
+      <c r="I215" s="15"/>
+      <c r="J215" s="15"/>
+      <c r="K215" s="15"/>
+      <c r="L215" s="15"/>
+      <c r="M215" s="15"/>
+      <c r="N215" s="15"/>
+      <c r="O215" s="15"/>
+      <c r="P215" s="15"/>
+      <c r="Q215" s="15"/>
+      <c r="R215" s="15"/>
+      <c r="S215" s="15"/>
+      <c r="T215" s="6"/>
+    </row>
+    <row r="216" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B216" s="5"/>
+      <c r="C216" s="15"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="15"/>
+      <c r="F216" s="15"/>
+      <c r="G216" s="15"/>
+      <c r="H216" s="15"/>
+      <c r="I216" s="15"/>
+      <c r="J216" s="15"/>
+      <c r="K216" s="15"/>
+      <c r="L216" s="15"/>
+      <c r="M216" s="15"/>
+      <c r="N216" s="15"/>
+      <c r="O216" s="15"/>
+      <c r="P216" s="15"/>
+      <c r="Q216" s="15"/>
+      <c r="R216" s="15"/>
+      <c r="S216" s="15"/>
+      <c r="T216" s="6"/>
+    </row>
+    <row r="217" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B217" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C217" s="15"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="15"/>
+      <c r="G217" s="15"/>
+      <c r="H217" s="15"/>
+      <c r="I217" s="15"/>
+      <c r="J217" s="15"/>
+      <c r="K217" s="15"/>
+      <c r="L217" s="15"/>
+      <c r="M217" s="15"/>
+      <c r="N217" s="15"/>
+      <c r="O217" s="15"/>
+      <c r="P217" s="15"/>
+      <c r="Q217" s="15"/>
+      <c r="R217" s="15"/>
+      <c r="S217" s="15"/>
+      <c r="T217" s="6"/>
+    </row>
+    <row r="218" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B218" s="5"/>
+      <c r="C218" s="15"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="15"/>
+      <c r="F218" s="15"/>
+      <c r="G218" s="15"/>
+      <c r="H218" s="15"/>
+      <c r="I218" s="15"/>
+      <c r="J218" s="15"/>
+      <c r="K218" s="15"/>
+      <c r="L218" s="15"/>
+      <c r="M218" s="15"/>
+      <c r="N218" s="15"/>
+      <c r="O218" s="15"/>
+      <c r="P218" s="15"/>
+      <c r="Q218" s="15"/>
+      <c r="R218" s="15"/>
+      <c r="S218" s="15"/>
+      <c r="T218" s="6"/>
+    </row>
+    <row r="219" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B219" s="5"/>
+      <c r="C219" s="15"/>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15"/>
+      <c r="F219" s="15"/>
+      <c r="G219" s="15"/>
+      <c r="H219" s="15"/>
+      <c r="I219" s="15"/>
+      <c r="J219" s="15"/>
+      <c r="K219" s="15"/>
+      <c r="L219" s="15"/>
+      <c r="M219" s="15"/>
+      <c r="N219" s="15"/>
+      <c r="O219" s="15"/>
+      <c r="P219" s="15"/>
+      <c r="Q219" s="15"/>
+      <c r="R219" s="15"/>
+      <c r="S219" s="15"/>
+      <c r="T219" s="6"/>
+    </row>
+    <row r="220" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B220" s="5"/>
+      <c r="C220" s="15"/>
+      <c r="D220" s="15"/>
+      <c r="E220" s="15"/>
+      <c r="F220" s="15"/>
+      <c r="G220" s="15"/>
+      <c r="H220" s="15"/>
+      <c r="I220" s="15"/>
+      <c r="J220" s="15"/>
+      <c r="K220" s="15"/>
+      <c r="L220" s="15"/>
+      <c r="M220" s="15"/>
+      <c r="N220" s="15"/>
+      <c r="O220" s="15"/>
+      <c r="P220" s="15"/>
+      <c r="Q220" s="15"/>
+      <c r="R220" s="15"/>
+      <c r="S220" s="15"/>
+      <c r="T220" s="6"/>
+    </row>
+    <row r="221" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B221" s="5"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="15"/>
+      <c r="F221" s="15"/>
+      <c r="G221" s="15"/>
+      <c r="H221" s="15"/>
+      <c r="I221" s="15"/>
+      <c r="J221" s="15"/>
+      <c r="K221" s="15"/>
+      <c r="L221" s="15"/>
+      <c r="M221" s="15"/>
+      <c r="N221" s="15"/>
+      <c r="O221" s="15"/>
+      <c r="P221" s="15"/>
+      <c r="Q221" s="15"/>
+      <c r="R221" s="15"/>
+      <c r="S221" s="15"/>
+      <c r="T221" s="6"/>
+    </row>
+    <row r="222" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B222" s="5"/>
+      <c r="C222" s="15"/>
+      <c r="D222" s="15"/>
+      <c r="E222" s="15"/>
+      <c r="F222" s="15"/>
+      <c r="G222" s="15"/>
+      <c r="H222" s="15"/>
+      <c r="I222" s="15"/>
+      <c r="J222" s="15"/>
+      <c r="K222" s="15"/>
+      <c r="L222" s="15"/>
+      <c r="M222" s="15"/>
+      <c r="N222" s="15"/>
+      <c r="O222" s="15"/>
+      <c r="P222" s="15"/>
+      <c r="Q222" s="15"/>
+      <c r="R222" s="15"/>
+      <c r="S222" s="15"/>
+      <c r="T222" s="6"/>
+    </row>
+    <row r="223" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B223" s="5"/>
+      <c r="C223" s="15"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+      <c r="F223" s="15"/>
+      <c r="G223" s="15"/>
+      <c r="H223" s="15"/>
+      <c r="I223" s="15"/>
+      <c r="J223" s="15"/>
+      <c r="K223" s="15"/>
+      <c r="L223" s="15"/>
+      <c r="M223" s="15"/>
+      <c r="N223" s="15"/>
+      <c r="O223" s="15"/>
+      <c r="P223" s="15"/>
+      <c r="Q223" s="15"/>
+      <c r="R223" s="15"/>
+      <c r="S223" s="15"/>
+      <c r="T223" s="6"/>
+    </row>
+    <row r="224" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B224" s="5"/>
+      <c r="C224" s="15"/>
+      <c r="D224" s="15"/>
+      <c r="E224" s="15"/>
+      <c r="F224" s="15"/>
+      <c r="G224" s="15"/>
+      <c r="H224" s="15"/>
+      <c r="I224" s="15"/>
+      <c r="J224" s="15"/>
+      <c r="K224" s="15"/>
+      <c r="L224" s="15"/>
+      <c r="M224" s="15"/>
+      <c r="N224" s="15"/>
+      <c r="O224" s="15"/>
+      <c r="P224" s="15"/>
+      <c r="Q224" s="15"/>
+      <c r="R224" s="15"/>
+      <c r="S224" s="15"/>
+      <c r="T224" s="6"/>
+    </row>
+    <row r="225" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B225" s="5"/>
+      <c r="C225" s="15"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15"/>
+      <c r="F225" s="15"/>
+      <c r="G225" s="15"/>
+      <c r="H225" s="15"/>
+      <c r="I225" s="15"/>
+      <c r="J225" s="15"/>
+      <c r="K225" s="15"/>
+      <c r="L225" s="15"/>
+      <c r="M225" s="15"/>
+      <c r="N225" s="15"/>
+      <c r="O225" s="15"/>
+      <c r="P225" s="15"/>
+      <c r="Q225" s="15"/>
+      <c r="R225" s="15"/>
+      <c r="S225" s="15"/>
+      <c r="T225" s="6"/>
+    </row>
+    <row r="226" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B226" s="5"/>
+      <c r="C226" s="15"/>
+      <c r="D226" s="15"/>
+      <c r="E226" s="15"/>
+      <c r="F226" s="15"/>
+      <c r="G226" s="15"/>
+      <c r="H226" s="15"/>
+      <c r="I226" s="15"/>
+      <c r="J226" s="15"/>
+      <c r="K226" s="15"/>
+      <c r="L226" s="15"/>
+      <c r="M226" s="15"/>
+      <c r="N226" s="15"/>
+      <c r="O226" s="15"/>
+      <c r="P226" s="15"/>
+      <c r="Q226" s="15"/>
+      <c r="R226" s="15"/>
+      <c r="S226" s="15"/>
+      <c r="T226" s="6"/>
+    </row>
+    <row r="227" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B227" s="5"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="15"/>
+      <c r="F227" s="15"/>
+      <c r="G227" s="15"/>
+      <c r="H227" s="15"/>
+      <c r="I227" s="15"/>
+      <c r="J227" s="15"/>
+      <c r="K227" s="15"/>
+      <c r="L227" s="15"/>
+      <c r="M227" s="15"/>
+      <c r="N227" s="15"/>
+      <c r="O227" s="15"/>
+      <c r="P227" s="15"/>
+      <c r="Q227" s="15"/>
+      <c r="R227" s="15"/>
+      <c r="S227" s="15"/>
+      <c r="T227" s="6"/>
+    </row>
+    <row r="228" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B228" s="5"/>
+      <c r="C228" s="15"/>
+      <c r="D228" s="15"/>
+      <c r="E228" s="15"/>
+      <c r="F228" s="15"/>
+      <c r="G228" s="15"/>
+      <c r="H228" s="15"/>
+      <c r="I228" s="15"/>
+      <c r="J228" s="15"/>
+      <c r="K228" s="15"/>
+      <c r="L228" s="15"/>
+      <c r="M228" s="15"/>
+      <c r="N228" s="15"/>
+      <c r="O228" s="15"/>
+      <c r="P228" s="15"/>
+      <c r="Q228" s="15"/>
+      <c r="R228" s="15"/>
+      <c r="S228" s="15"/>
+      <c r="T228" s="6"/>
+    </row>
+    <row r="229" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B229" s="5"/>
+      <c r="C229" s="15"/>
+      <c r="D229" s="15"/>
+      <c r="E229" s="15"/>
+      <c r="F229" s="15"/>
+      <c r="G229" s="15"/>
+      <c r="H229" s="15"/>
+      <c r="I229" s="15"/>
+      <c r="J229" s="15"/>
+      <c r="K229" s="15"/>
+      <c r="L229" s="15"/>
+      <c r="M229" s="15"/>
+      <c r="N229" s="15"/>
+      <c r="O229" s="15"/>
+      <c r="P229" s="15"/>
+      <c r="Q229" s="15"/>
+      <c r="R229" s="15"/>
+      <c r="S229" s="15"/>
+      <c r="T229" s="6"/>
+    </row>
+    <row r="230" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B230" s="5"/>
+      <c r="C230" s="15"/>
+      <c r="D230" s="15"/>
+      <c r="E230" s="15"/>
+      <c r="F230" s="15"/>
+      <c r="G230" s="15"/>
+      <c r="H230" s="15"/>
+      <c r="I230" s="15"/>
+      <c r="J230" s="15"/>
+      <c r="K230" s="15"/>
+      <c r="L230" s="15"/>
+      <c r="M230" s="15"/>
+      <c r="N230" s="15"/>
+      <c r="O230" s="15"/>
+      <c r="P230" s="15"/>
+      <c r="Q230" s="15"/>
+      <c r="R230" s="15"/>
+      <c r="S230" s="15"/>
+      <c r="T230" s="6"/>
+    </row>
+    <row r="231" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B231" s="5"/>
+      <c r="C231" s="15"/>
+      <c r="D231" s="15"/>
+      <c r="E231" s="15"/>
+      <c r="F231" s="15"/>
+      <c r="G231" s="15"/>
+      <c r="H231" s="15"/>
+      <c r="I231" s="15"/>
+      <c r="J231" s="15"/>
+      <c r="K231" s="15"/>
+      <c r="L231" s="15"/>
+      <c r="M231" s="15"/>
+      <c r="N231" s="15"/>
+      <c r="O231" s="15"/>
+      <c r="P231" s="15"/>
+      <c r="Q231" s="15"/>
+      <c r="R231" s="15"/>
+      <c r="S231" s="15"/>
+      <c r="T231" s="6"/>
+    </row>
+    <row r="232" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B232" s="5"/>
+      <c r="C232" s="15"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="15"/>
+      <c r="F232" s="15"/>
+      <c r="G232" s="15"/>
+      <c r="H232" s="15"/>
+      <c r="I232" s="15"/>
+      <c r="J232" s="15"/>
+      <c r="K232" s="15"/>
+      <c r="L232" s="15"/>
+      <c r="M232" s="15"/>
+      <c r="N232" s="15"/>
+      <c r="O232" s="15"/>
+      <c r="P232" s="15"/>
+      <c r="Q232" s="15"/>
+      <c r="R232" s="15"/>
+      <c r="S232" s="15"/>
+      <c r="T232" s="6"/>
+    </row>
+    <row r="233" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B233" s="5"/>
+      <c r="C233" s="15"/>
+      <c r="D233" s="15"/>
+      <c r="E233" s="15"/>
+      <c r="F233" s="15"/>
+      <c r="G233" s="15"/>
+      <c r="H233" s="15"/>
+      <c r="I233" s="15"/>
+      <c r="J233" s="15"/>
+      <c r="K233" s="15"/>
+      <c r="L233" s="15"/>
+      <c r="M233" s="15"/>
+      <c r="N233" s="15"/>
+      <c r="O233" s="15"/>
+      <c r="P233" s="15"/>
+      <c r="Q233" s="15"/>
+      <c r="R233" s="15"/>
+      <c r="S233" s="15"/>
+      <c r="T233" s="6"/>
+    </row>
+    <row r="234" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B234" s="5"/>
+      <c r="C234" s="15"/>
+      <c r="D234" s="15"/>
+      <c r="E234" s="15"/>
+      <c r="F234" s="15"/>
+      <c r="G234" s="15"/>
+      <c r="H234" s="15"/>
+      <c r="I234" s="15"/>
+      <c r="J234" s="15"/>
+      <c r="K234" s="15"/>
+      <c r="L234" s="15"/>
+      <c r="M234" s="15"/>
+      <c r="N234" s="15"/>
+      <c r="O234" s="15"/>
+      <c r="P234" s="15"/>
+      <c r="Q234" s="15"/>
+      <c r="R234" s="15"/>
+      <c r="S234" s="15"/>
+      <c r="T234" s="6"/>
+    </row>
+    <row r="235" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B235" s="5"/>
+      <c r="C235" s="15"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="15"/>
+      <c r="G235" s="15"/>
+      <c r="H235" s="15"/>
+      <c r="I235" s="15"/>
+      <c r="J235" s="15"/>
+      <c r="K235" s="15"/>
+      <c r="L235" s="15"/>
+      <c r="M235" s="15"/>
+      <c r="N235" s="15"/>
+      <c r="O235" s="15"/>
+      <c r="P235" s="15"/>
+      <c r="Q235" s="15"/>
+      <c r="R235" s="15"/>
+      <c r="S235" s="15"/>
+      <c r="T235" s="6"/>
+    </row>
+    <row r="236" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B236" s="5"/>
+      <c r="C236" s="15"/>
+      <c r="D236" s="15"/>
+      <c r="E236" s="15"/>
+      <c r="F236" s="15"/>
+      <c r="G236" s="15"/>
+      <c r="H236" s="15"/>
+      <c r="I236" s="15"/>
+      <c r="J236" s="15"/>
+      <c r="K236" s="15"/>
+      <c r="L236" s="15"/>
+      <c r="M236" s="15"/>
+      <c r="N236" s="15"/>
+      <c r="O236" s="15"/>
+      <c r="P236" s="15"/>
+      <c r="Q236" s="15"/>
+      <c r="R236" s="15"/>
+      <c r="S236" s="15"/>
+      <c r="T236" s="6"/>
+    </row>
+    <row r="237" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B237" s="5"/>
+      <c r="C237" s="15"/>
+      <c r="D237" s="15"/>
+      <c r="E237" s="15"/>
+      <c r="F237" s="15"/>
+      <c r="G237" s="15"/>
+      <c r="H237" s="15"/>
+      <c r="I237" s="15"/>
+      <c r="J237" s="15"/>
+      <c r="K237" s="15"/>
+      <c r="L237" s="15"/>
+      <c r="M237" s="15"/>
+      <c r="N237" s="15"/>
+      <c r="O237" s="15"/>
+      <c r="P237" s="15"/>
+      <c r="Q237" s="15"/>
+      <c r="R237" s="15"/>
+      <c r="S237" s="15"/>
+      <c r="T237" s="6"/>
+    </row>
+    <row r="238" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B238" s="5"/>
+      <c r="C238" s="15"/>
+      <c r="D238" s="15"/>
+      <c r="E238" s="15"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="15"/>
+      <c r="H238" s="15"/>
+      <c r="I238" s="15"/>
+      <c r="J238" s="15"/>
+      <c r="K238" s="15"/>
+      <c r="L238" s="15"/>
+      <c r="M238" s="15"/>
+      <c r="N238" s="15"/>
+      <c r="O238" s="15"/>
+      <c r="P238" s="15"/>
+      <c r="Q238" s="15"/>
+      <c r="R238" s="15"/>
+      <c r="S238" s="15"/>
+      <c r="T238" s="6"/>
+    </row>
+    <row r="239" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B239" s="5"/>
+      <c r="C239" s="15"/>
+      <c r="D239" s="15"/>
+      <c r="E239" s="15"/>
+      <c r="F239" s="15"/>
+      <c r="G239" s="15"/>
+      <c r="H239" s="15"/>
+      <c r="I239" s="15"/>
+      <c r="J239" s="15"/>
+      <c r="K239" s="15"/>
+      <c r="L239" s="15"/>
+      <c r="M239" s="15"/>
+      <c r="N239" s="15"/>
+      <c r="O239" s="15"/>
+      <c r="P239" s="15"/>
+      <c r="Q239" s="15"/>
+      <c r="R239" s="15"/>
+      <c r="S239" s="15"/>
+      <c r="T239" s="6"/>
+    </row>
+    <row r="240" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B240" s="5"/>
+      <c r="C240" s="15"/>
+      <c r="D240" s="15"/>
+      <c r="E240" s="15"/>
+      <c r="F240" s="15"/>
+      <c r="G240" s="15"/>
+      <c r="H240" s="15"/>
+      <c r="I240" s="15"/>
+      <c r="J240" s="15"/>
+      <c r="K240" s="15"/>
+      <c r="L240" s="15"/>
+      <c r="M240" s="15"/>
+      <c r="N240" s="15"/>
+      <c r="O240" s="15"/>
+      <c r="P240" s="15"/>
+      <c r="Q240" s="15"/>
+      <c r="R240" s="15"/>
+      <c r="S240" s="15"/>
+      <c r="T240" s="6"/>
+    </row>
+    <row r="241" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B241" s="5"/>
+      <c r="C241" s="15"/>
+      <c r="D241" s="15"/>
+      <c r="E241" s="15"/>
+      <c r="F241" s="15"/>
+      <c r="G241" s="15"/>
+      <c r="H241" s="15"/>
+      <c r="I241" s="15"/>
+      <c r="J241" s="15"/>
+      <c r="K241" s="15"/>
+      <c r="L241" s="15"/>
+      <c r="M241" s="15"/>
+      <c r="N241" s="15"/>
+      <c r="O241" s="15"/>
+      <c r="P241" s="15"/>
+      <c r="Q241" s="15"/>
+      <c r="R241" s="15"/>
+      <c r="S241" s="15"/>
+      <c r="T241" s="6"/>
+    </row>
+    <row r="242" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B242" s="5"/>
+      <c r="C242" s="15"/>
+      <c r="D242" s="15"/>
+      <c r="E242" s="15"/>
+      <c r="F242" s="15"/>
+      <c r="G242" s="15"/>
+      <c r="H242" s="15"/>
+      <c r="I242" s="15"/>
+      <c r="J242" s="15"/>
+      <c r="K242" s="15"/>
+      <c r="L242" s="15"/>
+      <c r="M242" s="15"/>
+      <c r="N242" s="15"/>
+      <c r="O242" s="15"/>
+      <c r="P242" s="15"/>
+      <c r="Q242" s="15"/>
+      <c r="R242" s="15"/>
+      <c r="S242" s="15"/>
+      <c r="T242" s="6"/>
+    </row>
+    <row r="243" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B243" s="5"/>
+      <c r="C243" s="15"/>
+      <c r="D243" s="15"/>
+      <c r="E243" s="15"/>
+      <c r="F243" s="15"/>
+      <c r="G243" s="15"/>
+      <c r="H243" s="15"/>
+      <c r="I243" s="15"/>
+      <c r="J243" s="15"/>
+      <c r="K243" s="15"/>
+      <c r="L243" s="15"/>
+      <c r="M243" s="15"/>
+      <c r="N243" s="15"/>
+      <c r="O243" s="15"/>
+      <c r="P243" s="15"/>
+      <c r="Q243" s="15"/>
+      <c r="R243" s="15"/>
+      <c r="S243" s="15"/>
+      <c r="T243" s="6"/>
+    </row>
+    <row r="244" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B244" s="5"/>
+      <c r="C244" s="15"/>
+      <c r="D244" s="15"/>
+      <c r="E244" s="15"/>
+      <c r="F244" s="15"/>
+      <c r="G244" s="15"/>
+      <c r="H244" s="15"/>
+      <c r="I244" s="15"/>
+      <c r="J244" s="15"/>
+      <c r="K244" s="15"/>
+      <c r="L244" s="15"/>
+      <c r="M244" s="15"/>
+      <c r="N244" s="15"/>
+      <c r="O244" s="15"/>
+      <c r="P244" s="15"/>
+      <c r="Q244" s="15"/>
+      <c r="R244" s="15"/>
+      <c r="S244" s="15"/>
+      <c r="T244" s="6"/>
+    </row>
+    <row r="245" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B245" s="7"/>
+      <c r="C245" s="8"/>
+      <c r="D245" s="8"/>
+      <c r="E245" s="8"/>
+      <c r="F245" s="8"/>
+      <c r="G245" s="8"/>
+      <c r="H245" s="8"/>
+      <c r="I245" s="8"/>
+      <c r="J245" s="8"/>
+      <c r="K245" s="8"/>
+      <c r="L245" s="8"/>
+      <c r="M245" s="8"/>
+      <c r="N245" s="8"/>
+      <c r="O245" s="8"/>
+      <c r="P245" s="8"/>
+      <c r="Q245" s="8"/>
+      <c r="R245" s="8"/>
+      <c r="S245" s="8"/>
+      <c r="T245" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>